--- a/内部编号列表/[hack]Extra BETA.xlsx
+++ b/内部编号列表/[hack]Extra BETA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="502">
   <si>
     <r>
       <rPr>
@@ -34,6 +34,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>游戏模式编号</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>十六进制</t>
     </r>
   </si>
@@ -60,6 +71,17 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>模式名称</t>
+    </r>
+  </si>
+  <si>
     <t>00</t>
   </si>
   <si>
@@ -129,6 +151,51 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冒险模式</t>
+    </r>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>50</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蹦极闪电战</t>
+    </r>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>死亡飞艇</t>
+    </r>
+  </si>
+  <si>
     <t>01</t>
   </si>
   <si>
@@ -207,6 +274,51 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：白天</t>
+    </r>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>松鼠</t>
+    </r>
+  </si>
+  <si>
+    <t>68</t>
+  </si>
+  <si>
+    <t>104</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我烂了！</t>
+    </r>
+  </si>
+  <si>
     <t>02</t>
   </si>
   <si>
@@ -285,6 +397,43 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：夜晚</t>
+    </r>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>52</t>
+  </si>
+  <si>
+    <t>血月降临</t>
+  </si>
+  <si>
+    <t>69</t>
+  </si>
+  <si>
+    <t>105</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸摇摆</t>
+    </r>
+  </si>
+  <si>
     <t>03</t>
   </si>
   <si>
@@ -336,6 +485,40 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：泳池</t>
+    </r>
+  </si>
+  <si>
+    <t>53</t>
+  </si>
+  <si>
+    <t>双重麻烦</t>
+  </si>
+  <si>
+    <t>6A</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>三连击</t>
+    </r>
+  </si>
+  <si>
     <t>04</t>
   </si>
   <si>
@@ -387,6 +570,40 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：浓雾</t>
+    </r>
+  </si>
+  <si>
+    <t>54</t>
+  </si>
+  <si>
+    <t>殖民意识</t>
+  </si>
+  <si>
+    <t>6B</t>
+  </si>
+  <si>
+    <t>107</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你所有大脑都是我的</t>
+    </r>
+  </si>
+  <si>
     <t>05</t>
   </si>
   <si>
@@ -438,6 +655,32 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存模式：屋顶</t>
+    </r>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>塔防</t>
+  </si>
+  <si>
+    <t>6C</t>
+  </si>
+  <si>
+    <t>108</t>
+  </si>
+  <si>
+    <t>代号：绿</t>
+  </si>
+  <si>
     <t>06</t>
   </si>
   <si>
@@ -489,6 +732,44 @@
     </r>
   </si>
   <si>
+    <t>生存模式：月夜</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>通货膨胀</t>
+  </si>
+  <si>
+    <t>6D-75</t>
+  </si>
+  <si>
+    <t>109-117</t>
+  </si>
+  <si>
+    <r>
+      <t>TBD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
     <t>07</t>
   </si>
   <si>
@@ -540,6 +821,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>57</t>
+  </si>
+  <si>
+    <t>黄油爆米花</t>
+  </si>
+  <si>
+    <t>118</t>
+  </si>
+  <si>
+    <t>我是僵尸无尽版</t>
+  </si>
+  <si>
     <t>08</t>
   </si>
   <si>
@@ -574,9 +902,6 @@
     </r>
   </si>
   <si>
-    <t>50</t>
-  </si>
-  <si>
     <t>80</t>
   </si>
   <si>
@@ -591,6 +916,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3B</t>
+  </si>
+  <si>
+    <t>58</t>
+  </si>
+  <si>
+    <t>僵王博士的复仇2</t>
+  </si>
+  <si>
+    <t>119</t>
+  </si>
+  <si>
+    <t>禅境花园</t>
+  </si>
+  <si>
     <t>09</t>
   </si>
   <si>
@@ -625,9 +997,6 @@
     </r>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
     <t>81</t>
   </si>
   <si>
@@ -642,6 +1011,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>59</t>
+  </si>
+  <si>
+    <t>乱入打击</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>智慧树</t>
+  </si>
+  <si>
     <t>0A</t>
   </si>
   <si>
@@ -676,9 +1092,6 @@
     </r>
   </si>
   <si>
-    <t>52</t>
-  </si>
-  <si>
     <t>82</t>
   </si>
   <si>
@@ -693,6 +1106,61 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3D</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>全靠自己</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追加销售</t>
+    </r>
+  </si>
+  <si>
     <t>0B</t>
   </si>
   <si>
@@ -727,9 +1195,6 @@
     </r>
   </si>
   <si>
-    <t>53</t>
-  </si>
-  <si>
     <t>83</t>
   </si>
   <si>
@@ -744,6 +1209,64 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>困难</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>61</t>
+  </si>
+  <si>
+    <t>按键绑定</t>
+  </si>
+  <si>
+    <t>7A</t>
+  </si>
+  <si>
+    <t>122</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>介绍</t>
+    </r>
+  </si>
+  <si>
     <t>0C</t>
   </si>
   <si>
@@ -775,9 +1298,6 @@
     </r>
   </si>
   <si>
-    <t>54</t>
-  </si>
-  <si>
     <t>84</t>
   </si>
   <si>
@@ -792,6 +1312,27 @@
     </r>
   </si>
   <si>
+    <t>生存模式：月夜(困难)</t>
+  </si>
+  <si>
+    <t>3F</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>旷日持久的战争</t>
+  </si>
+  <si>
+    <t>7B</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>热浪</t>
+  </si>
+  <si>
     <t>0D</t>
   </si>
   <si>
@@ -823,9 +1364,6 @@
     </r>
   </si>
   <si>
-    <t>55</t>
-  </si>
-  <si>
     <t>85</t>
   </si>
   <si>
@@ -840,6 +1378,53 @@
     </r>
   </si>
   <si>
+    <r>
+      <t>生存模式：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无尽</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>太阳花的指令</t>
+  </si>
+  <si>
+    <t>7C</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>大僵尸大麻烦</t>
+  </si>
+  <si>
     <t>0E</t>
   </si>
   <si>
@@ -871,9 +1456,6 @@
     </r>
   </si>
   <si>
-    <t>56</t>
-  </si>
-  <si>
     <t>86</t>
   </si>
   <si>
@@ -888,6 +1470,24 @@
     </r>
   </si>
   <si>
+    <t>生存模式：夜晚(无尽)</t>
+  </si>
+  <si>
+    <t>64</t>
+  </si>
+  <si>
+    <t>镜像</t>
+  </si>
+  <si>
+    <t>7D</t>
+  </si>
+  <si>
+    <t>125</t>
+  </si>
+  <si>
+    <t>纸虫</t>
+  </si>
+  <si>
     <t>0F</t>
   </si>
   <si>
@@ -905,9 +1505,6 @@
     </r>
   </si>
   <si>
-    <t>33</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -919,9 +1516,6 @@
     </r>
   </si>
   <si>
-    <t>57</t>
-  </si>
-  <si>
     <t>87</t>
   </si>
   <si>
@@ -936,6 +1530,24 @@
     </r>
   </si>
   <si>
+    <t>生存模式：泳池(无尽)</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>魔法种植</t>
+  </si>
+  <si>
+    <t>7E</t>
+  </si>
+  <si>
+    <t>126</t>
+  </si>
+  <si>
+    <t>禁止通行</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -950,9 +1562,6 @@
     </r>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -964,9 +1573,6 @@
     </r>
   </si>
   <si>
-    <t>58</t>
-  </si>
-  <si>
     <t>88</t>
   </si>
   <si>
@@ -981,6 +1587,24 @@
     </r>
   </si>
   <si>
+    <t>生存模式：浓雾(无尽)</t>
+  </si>
+  <si>
+    <t>66</t>
+  </si>
+  <si>
+    <t>边界条约</t>
+  </si>
+  <si>
+    <t>7F</t>
+  </si>
+  <si>
+    <t>127</t>
+  </si>
+  <si>
+    <t>隐形守护者</t>
+  </si>
+  <si>
     <t>17</t>
   </si>
   <si>
@@ -995,9 +1619,6 @@
     </r>
   </si>
   <si>
-    <t>35</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1009,9 +1630,6 @@
     </r>
   </si>
   <si>
-    <t>59</t>
-  </si>
-  <si>
     <t>89</t>
   </si>
   <si>
@@ -1026,6 +1644,29 @@
     </r>
   </si>
   <si>
+    <t>生存模式：屋顶(无尽)</t>
+  </si>
+  <si>
+    <t>力拔山河</t>
+  </si>
+  <si>
+    <t>128</t>
+  </si>
+  <si>
+    <r>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
     <t>18</t>
   </si>
   <si>
@@ -1068,6 +1709,18 @@
     </r>
   </si>
   <si>
+    <t>生存模式：月夜(无尽)</t>
+  </si>
+  <si>
+    <t>七宗罪</t>
+  </si>
+  <si>
+    <t>129</t>
+  </si>
+  <si>
+    <t>阳光炸弹</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -1110,6 +1763,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>植物僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>薛定谔的僵尸</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>贪吃蛇</t>
+  </si>
+  <si>
     <t>20</t>
   </si>
   <si>
@@ -1152,6 +1825,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+  </si>
+  <si>
+    <t>70</t>
+  </si>
+  <si>
+    <t>海森堡的僵尸</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>我们之中</t>
+  </si>
+  <si>
     <t>21</t>
   </si>
   <si>
@@ -1194,6 +1890,40 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>老虎机</t>
+    </r>
+  </si>
+  <si>
+    <t>71</t>
+  </si>
+  <si>
+    <t>狂欢庭院</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <r>
+      <t>黑暗的暴风雨夜</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
     <t>22</t>
   </si>
   <si>
@@ -1208,9 +1938,6 @@
     </r>
   </si>
   <si>
-    <t>3A</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1239,6 +1966,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>雨中种植物</t>
+    </r>
+  </si>
+  <si>
+    <t>2048</t>
+  </si>
+  <si>
+    <t>133</t>
+  </si>
+  <si>
+    <t>重型武器</t>
+  </si>
+  <si>
     <t>23</t>
   </si>
   <si>
@@ -1253,9 +2000,6 @@
     </r>
   </si>
   <si>
-    <t>3B</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1291,16 +2035,30 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>宝石迷阵</t>
+    </r>
+  </si>
+  <si>
+    <t>爆破小队</t>
+  </si>
+  <si>
+    <t>134</t>
+  </si>
+  <si>
+    <t>夜间诅咒</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>海蘑菇</t>
     </r>
   </si>
   <si>
-    <t>3C</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1360,16 +2118,41 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>隐形食脑者</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>135</t>
+  </si>
+  <si>
+    <t>气候</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>路灯花</t>
     </r>
   </si>
   <si>
-    <t>3D</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1395,6 +2178,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>看星星</t>
+    </r>
+  </si>
+  <si>
+    <t>泳池派对</t>
+  </si>
+  <si>
+    <t>136</t>
+  </si>
+  <si>
+    <t>末日星河</t>
+  </si>
+  <si>
     <t>1A</t>
   </si>
   <si>
@@ -1409,12 +2212,6 @@
     </r>
   </si>
   <si>
-    <t>3E</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1440,6 +2237,26 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>僵尸水族馆</t>
+    </r>
+  </si>
+  <si>
+    <t>盲打</t>
+  </si>
+  <si>
+    <t>137</t>
+  </si>
+  <si>
+    <t>时间攻击</t>
+  </si>
+  <si>
     <t>1B</t>
   </si>
   <si>
@@ -1454,12 +2271,6 @@
     </r>
   </si>
   <si>
-    <t>3F</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1485,6 +2296,29 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝石迷阵转转看</t>
+    </r>
+  </si>
+  <si>
+    <t>星期三</t>
+  </si>
+  <si>
+    <t>8A</t>
+  </si>
+  <si>
+    <t>138</t>
+  </si>
+  <si>
+    <t>烂苹果</t>
+  </si>
+  <si>
     <t>1C</t>
   </si>
   <si>
@@ -1499,9 +2333,6 @@
     </r>
   </si>
   <si>
-    <t>64</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1527,6 +2358,48 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小僵尸大麻烦</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>僵王博士的复仇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>8B</t>
+  </si>
+  <si>
+    <t>139</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双人合作：白天</t>
+    </r>
+  </si>
+  <si>
     <t>1D</t>
   </si>
   <si>
@@ -1541,9 +2414,6 @@
     </r>
   </si>
   <si>
-    <t>65</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1569,6 +2439,45 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>保护传送门</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破罐者</t>
+    </r>
+  </si>
+  <si>
+    <t>8C</t>
+  </si>
+  <si>
+    <t>140</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双人合作：夜晚</t>
+    </r>
+  </si>
+  <si>
     <t>1E</t>
   </si>
   <si>
@@ -1583,9 +2492,6 @@
     </r>
   </si>
   <si>
-    <t>66</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1611,6 +2517,63 @@
     </r>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你看</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>它们像柱子一样</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>全部留下</t>
+    </r>
+  </si>
+  <si>
+    <t>8D</t>
+  </si>
+  <si>
+    <t>141</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双人合作：泳池</t>
+    </r>
+  </si>
+  <si>
     <t>1F</t>
   </si>
   <si>
@@ -1625,9 +2588,6 @@
     </r>
   </si>
   <si>
-    <t>67</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1666,9 +2626,6 @@
     </r>
   </si>
   <si>
-    <t>103</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1687,13 +2644,67 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>雪橇区</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>个罐子</t>
+    </r>
+  </si>
+  <si>
+    <t>8E</t>
+  </si>
+  <si>
+    <t>142</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双人合作：浓雾</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>卷心菜投手</t>
     </r>
   </si>
   <si>
-    <t>68</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1732,9 +2743,6 @@
     </r>
   </si>
   <si>
-    <t>104</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1753,13 +2761,49 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>僵尸快跑</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <t>8F</t>
+  </si>
+  <si>
+    <t>143</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>双人合作：屋顶</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>花盆</t>
     </r>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1798,9 +2842,6 @@
     </r>
   </si>
   <si>
-    <t>105</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1837,13 +2878,47 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>锤僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>M</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>的意思是金属</t>
+    </r>
+  </si>
+  <si>
+    <t>144</t>
+  </si>
+  <si>
+    <t>双人合作：月夜</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>玉米投手</t>
     </r>
   </si>
   <si>
-    <t>70</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1855,12 +2930,6 @@
     </r>
   </si>
   <si>
-    <t>6A</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1897,13 +2966,67 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>谁笑到最后</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>胆怯的制陶工</t>
+    </r>
+  </si>
+  <si>
+    <t>145</t>
+  </si>
+  <si>
+    <r>
+      <t>双人合作：白天</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>咖啡豆</t>
     </r>
   </si>
   <si>
-    <t>71</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1933,12 +3056,6 @@
     </r>
   </si>
   <si>
-    <t>6B</t>
-  </si>
-  <si>
-    <t>107</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1993,6 +3110,138 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>植物僵尸</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>变戏法</t>
+    </r>
+  </si>
+  <si>
+    <t>146</t>
+  </si>
+  <si>
+    <r>
+      <t>双人合作：夜晚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>另一个连锁反应</t>
+    </r>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
+    <r>
+      <t>双人合作：泳池</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>图鉴编号</t>
     </r>
   </si>
@@ -2004,6 +3253,63 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>跳跳舞会</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>罐子王牌</t>
+    </r>
+  </si>
+  <si>
+    <t>148</t>
+  </si>
+  <si>
+    <r>
+      <t>双人合作：浓雾</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>植物</t>
     </r>
   </si>
@@ -2026,6 +3332,110 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>僵王博士的复仇</t>
+    </r>
+  </si>
+  <si>
+    <t>最终连锁反应</t>
+  </si>
+  <si>
+    <t>149</t>
+  </si>
+  <si>
+    <r>
+      <t>双人合作：屋顶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>生存</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坚果保龄球</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>艺术锦标赛</t>
+    </r>
+  </si>
+  <si>
+    <t>摇滚派对</t>
+  </si>
+  <si>
+    <t>150</t>
+  </si>
+  <si>
+    <t>双人合作：月夜(生存)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>晴天</t>
+    </r>
+  </si>
+  <si>
+    <t>纵火狂</t>
+  </si>
+  <si>
+    <t>双人对战：白天</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>旗帜僵尸</t>
     </r>
   </si>
@@ -2037,6 +3447,216 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>无草皮之地</t>
+    </r>
+  </si>
+  <si>
+    <t>空降</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>重要时间</t>
+    </r>
+  </si>
+  <si>
+    <t>嚼嚼嚼</t>
+  </si>
+  <si>
+    <t>双人对战：夜晚</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>挑战</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>种太阳花的艺术</t>
+    </r>
+  </si>
+  <si>
+    <t>流行</t>
+  </si>
+  <si>
+    <t>9A</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>空袭</t>
+    </r>
+  </si>
+  <si>
+    <t>5F-62</t>
+  </si>
+  <si>
+    <t>94-97</t>
+  </si>
+  <si>
+    <r>
+      <t>TBD(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>砸花瓶</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>9B</t>
+  </si>
+  <si>
+    <t>双人对战：泳池</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰冻关卡</t>
+    </r>
+  </si>
+  <si>
+    <t>无尽的试炼</t>
+  </si>
+  <si>
+    <t>9C</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>超乎寻常的压力</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我是僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>9D</t>
+  </si>
+  <si>
+    <t>双人对战：浓雾</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>坟墓模式</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>我也是僵尸</t>
+    </r>
+  </si>
+  <si>
+    <t>9E</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能把它挖出来吗？</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>你能铲了它吗？</t>
+    </r>
+  </si>
+  <si>
+    <t>9F</t>
+  </si>
+  <si>
+    <t>双人对战：屋顶</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>伴舞僵尸</t>
     </r>
   </si>
@@ -2048,8 +3668,42 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>黑暗的暴风雨夜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>完全傻了</t>
+    </r>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>鸭子救生圈僵尸</t>
     </r>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>双人对战：月夜</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
   <si>
     <r>
@@ -2294,6 +3948,12 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2440,14 +4100,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2486,13 +4140,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF66FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD966"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9FB7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF8AABEA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF84DDE1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2683,7 +4379,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -2711,6 +4407,30 @@
         <color auto="1"/>
       </left>
       <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2825,10 +4545,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2837,34 +4557,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2876,98 +4593,101 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2998,10 +4718,58 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="14" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3340,10 +5108,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I108"/>
+  <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D77" sqref="D77"/>
+    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
+      <selection activeCell="P47" sqref="P47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -3354,10 +5122,16 @@
     <col min="6" max="6" width="18.6666666666667" style="1" customWidth="1"/>
     <col min="7" max="8" width="8.88888888888889" style="1"/>
     <col min="9" max="9" width="22.1111111111111" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88888888888889" style="1"/>
+    <col min="10" max="12" width="8.88888888888889" style="1"/>
+    <col min="13" max="13" width="21.8888888888889" style="1" customWidth="1"/>
+    <col min="14" max="15" width="8.88888888888889" style="1"/>
+    <col min="16" max="16" width="16.2222222222222" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.88888888888889" style="1"/>
+    <col min="19" max="19" width="20.8888888888889" style="1" customWidth="1"/>
+    <col min="20" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:9">
+    <row r="1" customHeight="1" spans="1:19">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3369,1083 +5143,2122 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
-    </row>
-    <row r="2" customHeight="1" spans="1:9">
+      <c r="K1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="11"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="21"/>
+    </row>
+    <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="K2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="L2" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" customHeight="1" spans="1:9">
+      <c r="M2" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="O2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="R2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:19">
       <c r="A3" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="L3" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="M3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="S3" s="18" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:19">
+      <c r="A4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:19">
+      <c r="A5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="O5" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="R5" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:19">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q6" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="R6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="S6" s="18" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:19">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="P7" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="R7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="S7" s="18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:19">
+      <c r="A8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" s="14" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="R8" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="S8" s="18" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:19">
+      <c r="A9" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="P9" s="14" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q9" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="S9" s="18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:19">
+      <c r="A10" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="P10" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="R10" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="S10" s="18" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:19">
+      <c r="A11" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M11" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="P11" s="14" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q11" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="R11" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="S11" s="22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:19">
+      <c r="A12" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K12" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L12" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M12" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q12" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="R12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="S12" s="22" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:19">
+      <c r="A13" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K13" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M13" s="15" t="s">
+        <v>165</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="P13" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q13" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="R13" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="S13" s="23" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:19">
+      <c r="A14" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M14" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="P14" s="14" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q14" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="R14" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="S14" s="23" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:19">
+      <c r="A15" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="I15" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>193</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="P15" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q15" s="8" t="s">
+        <v>197</v>
+      </c>
+      <c r="R15" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="S15" s="14" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:19">
+      <c r="A16" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I16" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M16" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="P16" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q16" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="R16" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="S16" s="14" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" customHeight="1" spans="1:19">
+      <c r="A17" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K17" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L17" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M17" s="15" t="s">
+        <v>220</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="P17" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q17" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="R17" s="8" t="s">
+        <v>224</v>
+      </c>
+      <c r="S17" s="14" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="18" customHeight="1" spans="1:19">
+      <c r="A18" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="K18" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M18" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="P18" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q18" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="R18" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="S18" s="14" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:19">
+      <c r="A19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="K19" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="P19" s="14" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q19" s="8" t="s">
+        <v>246</v>
+      </c>
+      <c r="R19" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="S19" s="14" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:19">
+      <c r="A20" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="K20" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M20" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="P20" s="14" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q20" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="R20" s="8" t="s">
+        <v>256</v>
+      </c>
+      <c r="S20" s="14" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:19">
+      <c r="A21" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L21" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M21" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="P21" s="14" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q21" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="R21" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="S21" s="14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:19">
+      <c r="A22" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M22" s="17" t="s">
+        <v>274</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="P22" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="R22" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="S22" s="14" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" customHeight="1" spans="1:19">
+      <c r="A23" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="K23" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="M23" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>285</v>
+      </c>
+      <c r="P23" s="14" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q23" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="R23" s="8" t="s">
+        <v>287</v>
+      </c>
+      <c r="S23" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" customHeight="1" spans="1:19">
+      <c r="A24" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K24" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="M24" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>296</v>
+      </c>
+      <c r="P24" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q24" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="R24" s="8" t="s">
+        <v>298</v>
+      </c>
+      <c r="S24" s="14" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="25" customHeight="1" spans="1:19">
+      <c r="A25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="M25" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="P25" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q25" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="R25" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="S25" s="14" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="26" customHeight="1" spans="1:19">
+      <c r="A26" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K26" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="P26" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q26" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="R26" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="S26" s="14" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="27" customHeight="1" spans="1:19">
+      <c r="A27" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="C27" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K27" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>324</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="P27" s="14" t="s">
+        <v>325</v>
+      </c>
+      <c r="Q27" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="R27" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="S27" s="14" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="28" customHeight="1" spans="1:19">
+      <c r="A28" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="K28" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="P28" s="14" t="s">
+        <v>333</v>
+      </c>
+      <c r="Q28" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="R28" s="8" t="s">
+        <v>334</v>
+      </c>
+      <c r="S28" s="14" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="29" customHeight="1" spans="1:19">
+      <c r="A29" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K29" s="8" t="s">
+        <v>336</v>
+      </c>
+      <c r="L29" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="P29" s="14" t="s">
+        <v>342</v>
+      </c>
+      <c r="Q29" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="R29" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="S29" s="14" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="30" customHeight="1" spans="1:19">
+      <c r="A30" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>346</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K30" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="L30" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>350</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="P30" s="14" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q30" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="R30" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="S30" s="23" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="31" customHeight="1" spans="1:19">
+      <c r="A31" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>358</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="L31" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P31" s="14" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q31" s="8" t="s">
+        <v>362</v>
+      </c>
+      <c r="R31" s="8" t="s">
+        <v>363</v>
+      </c>
+      <c r="S31" s="24" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="32" customHeight="1" spans="1:19">
+      <c r="A32" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K32" s="8" t="s">
+        <v>365</v>
+      </c>
+      <c r="L32" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>370</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="P32" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q32" s="8" t="s">
+        <v>372</v>
+      </c>
+      <c r="R32" s="8" t="s">
+        <v>373</v>
+      </c>
+      <c r="S32" s="24" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="33" customHeight="1" spans="1:19">
+      <c r="A33" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>376</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="K33" s="8" t="s">
+        <v>375</v>
+      </c>
+      <c r="L33" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>380</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="P33" s="18" t="s">
+        <v>381</v>
+      </c>
+      <c r="Q33" s="8" t="s">
+        <v>382</v>
+      </c>
+      <c r="R33" s="8" t="s">
+        <v>383</v>
+      </c>
+      <c r="S33" s="24" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="34" customHeight="1" spans="1:19">
+      <c r="A34" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="G34" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="H34" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="K34" s="8" t="s">
+        <v>385</v>
+      </c>
+      <c r="L34" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="P34" s="18" t="s">
+        <v>390</v>
+      </c>
+      <c r="Q34" s="8" t="s">
+        <v>391</v>
+      </c>
+      <c r="R34" s="8" t="s">
+        <v>392</v>
+      </c>
+      <c r="S34" s="24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="35" customHeight="1" spans="1:19">
+      <c r="A35" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="G35" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="H35" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>278</v>
+      </c>
+      <c r="L35" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="N35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O35" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="P35" s="18" t="s">
+        <v>398</v>
+      </c>
+      <c r="Q35" s="8" t="s">
+        <v>399</v>
+      </c>
+      <c r="R35" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="S35" s="24" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="36" customHeight="1" spans="1:19">
+      <c r="A36" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>402</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="G36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="I36" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>289</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>405</v>
+      </c>
+      <c r="N36" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O36" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="P36" s="18" t="s">
+        <v>406</v>
+      </c>
+      <c r="Q36" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="R36" s="8" t="s">
+        <v>407</v>
+      </c>
+      <c r="S36" s="25" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="37" customHeight="1" spans="1:19">
+      <c r="A37" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>410</v>
+      </c>
+      <c r="G37" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H37" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K37" s="8" t="s">
+        <v>300</v>
+      </c>
+      <c r="L37" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>412</v>
+      </c>
+      <c r="N37" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="O37" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="P37" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q37" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="R37" s="8" t="s">
+        <v>414</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" customHeight="1" spans="1:19">
+      <c r="A38" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>417</v>
+      </c>
+      <c r="G38" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H38" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="I38" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="K38" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="L38" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>419</v>
+      </c>
+      <c r="N38" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O38" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="P38" s="18" t="s">
+        <v>420</v>
+      </c>
+      <c r="Q38" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="R38" s="8" t="s">
+        <v>421</v>
+      </c>
+      <c r="S38" s="25" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="39" customHeight="1" spans="11:19">
+      <c r="K39" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L39" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:9">
-      <c r="A7" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:9">
-      <c r="A9" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:9">
-      <c r="A11" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="7" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:9">
-      <c r="A13" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="7" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:9">
-      <c r="A14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="I14" s="7" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:9">
-      <c r="A15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="I15" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:9">
-      <c r="A16" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>122</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>124</v>
-      </c>
-      <c r="G16" s="2" t="s">
+      <c r="M39" s="17" t="s">
+        <v>423</v>
+      </c>
+      <c r="N39" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="I16" s="7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" customHeight="1" spans="1:9">
-      <c r="A17" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="I17" s="7" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" customHeight="1" spans="1:9">
-      <c r="A18" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>138</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>140</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:9">
-      <c r="A19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:9">
-      <c r="A20" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>154</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="I20" s="7" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:9">
-      <c r="A21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:9">
-      <c r="A22" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="23" customHeight="1" spans="1:9">
-      <c r="A23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="I23" s="7" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" customHeight="1" spans="1:9">
-      <c r="A24" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>178</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="I24" s="7" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="25" customHeight="1" spans="1:9">
-      <c r="A25" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="I25" s="7" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="26" customHeight="1" spans="1:9">
-      <c r="A26" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>192</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="27" customHeight="1" spans="1:9">
-      <c r="A27" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>199</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="I27" s="7" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" customHeight="1" spans="1:9">
-      <c r="A28" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>205</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="I28" s="7" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="29" customHeight="1" spans="1:9">
-      <c r="A29" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="I29" s="7" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="30" customHeight="1" spans="1:9">
-      <c r="A30" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="E30" s="2" t="s">
+      <c r="O39" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>219</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I30" s="7" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="31" customHeight="1" spans="1:9">
-      <c r="A31" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="I31" s="7" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="32" customHeight="1" spans="1:9">
-      <c r="A32" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C32" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="I32" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="33" customHeight="1" spans="1:9">
-      <c r="A33" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C33" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="I33" s="7" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="34" customHeight="1" spans="1:9">
-      <c r="A34" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="G34" s="8" t="s">
-        <v>242</v>
-      </c>
-      <c r="H34" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="I34" s="7" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="35" customHeight="1" spans="1:9">
-      <c r="A35" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>246</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F35" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="G35" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="H35" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="I35" s="7" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="36" customHeight="1" spans="1:9">
-      <c r="A36" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>251</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G36" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="H36" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="I36" s="7" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="37" customHeight="1" spans="1:9">
-      <c r="A37" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="F37" s="8" t="s">
-        <v>258</v>
-      </c>
-      <c r="G37" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="H37" s="8" t="s">
-        <v>260</v>
-      </c>
-      <c r="I37" s="7" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="38" customHeight="1" spans="1:9">
-      <c r="A38" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>263</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="G38" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="H38" s="8" t="s">
-        <v>266</v>
-      </c>
-      <c r="I38" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="40" customHeight="1" spans="1:9">
+      <c r="P39" s="18" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q39" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="R39" s="8" t="s">
+        <v>425</v>
+      </c>
+      <c r="S39" s="25" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="40" customHeight="1" spans="1:19">
       <c r="A40" s="2" t="s">
-        <v>268</v>
+        <v>427</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -4455,10 +7268,37 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
-    </row>
-    <row r="41" customHeight="1" spans="1:9">
+      <c r="K40" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L40" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>428</v>
+      </c>
+      <c r="N40" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="O40" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="P40" s="18" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q40" s="8" t="s">
+        <v>304</v>
+      </c>
+      <c r="R40" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="S40" s="25" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="41" customHeight="1" spans="1:19">
       <c r="A41" s="2" t="s">
-        <v>269</v>
+        <v>432</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -4466,1218 +7306,1558 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2" t="s">
-        <v>270</v>
+        <v>433</v>
       </c>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
-    </row>
-    <row r="42" customHeight="1" spans="1:9">
+      <c r="K41" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="L41" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>434</v>
+      </c>
+      <c r="N41" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="O41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="P41" s="18" t="s">
+        <v>435</v>
+      </c>
+      <c r="Q41" s="26">
+        <v>95</v>
+      </c>
+      <c r="R41" s="20" t="s">
+        <v>436</v>
+      </c>
+      <c r="S41" s="25" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="42" customHeight="1" spans="1:19">
       <c r="A42" s="2" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C42" s="2" t="s">
+      <c r="E42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="H42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="I42" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="43" customHeight="1" spans="1:9">
+        <v>4</v>
+      </c>
+      <c r="K42" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="L42" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>438</v>
+      </c>
+      <c r="N42" s="8" t="s">
+        <v>261</v>
+      </c>
+      <c r="O42" s="8" t="s">
+        <v>252</v>
+      </c>
+      <c r="P42" s="18" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q42" s="26">
+        <v>96</v>
+      </c>
+      <c r="R42" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="S42" s="25" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="43" customHeight="1" spans="1:19">
       <c r="A43" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="G43" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="H43" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L43" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>442</v>
+      </c>
+      <c r="N43" s="8" t="s">
+        <v>271</v>
+      </c>
+      <c r="O43" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="P43" s="18" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q43" s="26">
+        <v>97</v>
+      </c>
+      <c r="R43" s="26">
+        <v>151</v>
+      </c>
+      <c r="S43" s="27" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="44" customHeight="1" spans="1:19">
+      <c r="A44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="19" t="s">
+        <v>445</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="L44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>446</v>
+      </c>
+      <c r="N44" s="8" t="s">
+        <v>281</v>
+      </c>
+      <c r="O44" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="P44" s="18" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q44" s="26">
+        <v>98</v>
+      </c>
+      <c r="R44" s="26">
+        <v>152</v>
+      </c>
+      <c r="S44" s="27"/>
+    </row>
+    <row r="45" customHeight="1" spans="1:19">
+      <c r="A45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F45" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I45" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="K45" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="L45" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>448</v>
+      </c>
+      <c r="N45" s="8" t="s">
+        <v>292</v>
+      </c>
+      <c r="O45" s="8" t="s">
+        <v>282</v>
+      </c>
+      <c r="P45" s="18" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>99</v>
+      </c>
+      <c r="R45" s="26">
+        <v>153</v>
+      </c>
+      <c r="S45" s="27" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="46" customHeight="1" spans="1:19">
+      <c r="A46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I46" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="K46" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="L46" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>451</v>
+      </c>
+      <c r="N46" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="O46" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="P46" s="18" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q46" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="R46" s="26">
+        <v>154</v>
+      </c>
+      <c r="S46" s="27"/>
+    </row>
+    <row r="47" customHeight="1" spans="1:19">
+      <c r="A47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I47" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="K47" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>454</v>
+      </c>
+      <c r="N47" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="O47" s="20" t="s">
+        <v>456</v>
+      </c>
+      <c r="P47" s="18" t="s">
+        <v>457</v>
+      </c>
+      <c r="Q47" s="26" t="s">
+        <v>458</v>
+      </c>
+      <c r="R47" s="26">
+        <v>155</v>
+      </c>
+      <c r="S47" s="27" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="48" customHeight="1" spans="1:19">
+      <c r="A48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I48" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="K48" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="L48" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>460</v>
+      </c>
+      <c r="N48" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="O48" s="8" t="s">
+        <v>339</v>
+      </c>
+      <c r="P48" s="18" t="s">
+        <v>461</v>
+      </c>
+      <c r="Q48" s="26" t="s">
+        <v>462</v>
+      </c>
+      <c r="R48" s="26">
+        <v>156</v>
+      </c>
+      <c r="S48" s="27"/>
+    </row>
+    <row r="49" customHeight="1" spans="1:19">
+      <c r="A49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="I49" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="K49" s="8" t="s">
+        <v>174</v>
+      </c>
+      <c r="L49" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>463</v>
+      </c>
+      <c r="N49" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="O49" s="8" t="s">
+        <v>348</v>
+      </c>
+      <c r="P49" s="18" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q49" s="26" t="s">
+        <v>465</v>
+      </c>
+      <c r="R49" s="26">
+        <v>157</v>
+      </c>
+      <c r="S49" s="27" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="50" customHeight="1" spans="1:19">
+      <c r="A50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="F50" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="I50" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="K50" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="E43" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="F43" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="G43" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I43" s="11" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="44" customHeight="1" spans="1:9">
-      <c r="A44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G44" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I44" s="11" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="45" customHeight="1" spans="1:9">
-      <c r="A45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G45" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" customHeight="1" spans="1:9">
-      <c r="A46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="G46" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="11" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="47" customHeight="1" spans="1:9">
-      <c r="A47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C47" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F47" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="G47" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="48" customHeight="1" spans="1:9">
-      <c r="A48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="D48" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G48" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="49" customHeight="1" spans="1:9">
-      <c r="A49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D49" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G49" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I49" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="50" customHeight="1" spans="1:9">
-      <c r="A50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="F50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G50" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H50" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="I50" s="11" t="s">
+      <c r="L50" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="M50" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="N50" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="O50" s="8" t="s">
+        <v>358</v>
+      </c>
+      <c r="P50" s="18" t="s">
+        <v>468</v>
+      </c>
+      <c r="Q50" s="26" t="s">
+        <v>469</v>
+      </c>
+      <c r="R50" s="26">
+        <v>158</v>
+      </c>
+      <c r="S50" s="27"/>
+    </row>
+    <row r="51" customHeight="1" spans="1:19">
+      <c r="A51" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="4" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="51" customHeight="1" spans="1:9">
-      <c r="A51" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="G51" s="2" t="s">
-        <v>76</v>
+        <v>129</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="I51" s="11" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" customHeight="1" spans="1:9">
+        <v>130</v>
+      </c>
+      <c r="I51" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="K51" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="L51" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M51" s="14" t="s">
+        <v>470</v>
+      </c>
+      <c r="N51" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="O51" s="8" t="s">
+        <v>368</v>
+      </c>
+      <c r="P51" s="18" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q51" s="26" t="s">
+        <v>472</v>
+      </c>
+      <c r="R51" s="26">
+        <v>159</v>
+      </c>
+      <c r="S51" s="27" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="52" customHeight="1" spans="1:19">
       <c r="A52" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>86</v>
+        <v>144</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>87</v>
+        <v>145</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>81</v>
+        <v>134</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>85</v>
+        <v>143</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="I52" s="11" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="53" customHeight="1" spans="1:9">
+        <v>144</v>
+      </c>
+      <c r="I52" s="19" t="s">
+        <v>474</v>
+      </c>
+      <c r="K52" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L52" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M52" s="14" t="s">
+        <v>475</v>
+      </c>
+      <c r="N52" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="O52" s="8" t="s">
+        <v>378</v>
+      </c>
+      <c r="P52" s="18" t="s">
+        <v>476</v>
+      </c>
+      <c r="Q52" s="26" t="s">
+        <v>477</v>
+      </c>
+      <c r="R52" s="26">
+        <v>160</v>
+      </c>
+      <c r="S52" s="27"/>
+    </row>
+    <row r="53" customHeight="1" spans="1:19">
       <c r="A53" s="2" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>96</v>
+        <v>159</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>90</v>
+        <v>148</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="I53" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="54" customHeight="1" spans="1:9">
+        <v>158</v>
+      </c>
+      <c r="I53" s="19" t="s">
+        <v>478</v>
+      </c>
+      <c r="Q53" s="26" t="s">
+        <v>479</v>
+      </c>
+      <c r="R53" s="26">
+        <v>161</v>
+      </c>
+      <c r="S53" s="27" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="54" customHeight="1" spans="1:19">
       <c r="A54" s="2" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>105</v>
+        <v>173</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>98</v>
+        <v>161</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>99</v>
+        <v>162</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>103</v>
+        <v>171</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I54" s="11" t="s">
-        <v>135</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="I54" s="19" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q54" s="26" t="s">
+        <v>481</v>
+      </c>
+      <c r="R54" s="26">
+        <v>162</v>
+      </c>
+      <c r="S54" s="27"/>
     </row>
     <row r="55" customHeight="1" spans="1:9">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>114</v>
+        <v>188</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>107</v>
+        <v>175</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>108</v>
+        <v>176</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I55" s="11" t="s">
-        <v>150</v>
+        <v>187</v>
+      </c>
+      <c r="I55" s="19" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="56" customHeight="1" spans="1:9">
       <c r="A56" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="4" t="s">
-        <v>116</v>
+        <v>190</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="I56" s="11" t="s">
-        <v>274</v>
+        <v>201</v>
+      </c>
+      <c r="I56" s="19" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="57" customHeight="1" spans="1:9">
       <c r="A57" s="2" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>130</v>
+        <v>215</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="G57" s="2" t="s">
-        <v>128</v>
+        <v>213</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>143</v>
+        <v>214</v>
+      </c>
+      <c r="I57" s="19" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="58" customHeight="1" spans="1:9">
       <c r="A58" s="2" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>138</v>
+        <v>228</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>82</v>
+        <v>17</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>132</v>
+        <v>217</v>
       </c>
       <c r="G58" s="2" t="s">
-        <v>136</v>
+        <v>226</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="I58" s="11" t="s">
-        <v>157</v>
+        <v>227</v>
+      </c>
+      <c r="I58" s="19" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="59" customHeight="1" spans="1:9">
       <c r="A59" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>145</v>
+        <v>239</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>91</v>
+        <v>33</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="I59" s="11" t="s">
-        <v>163</v>
+        <v>238</v>
+      </c>
+      <c r="I59" s="19" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="60" customHeight="1" spans="1:9">
       <c r="A60" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>152</v>
+        <v>250</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>147</v>
+        <v>240</v>
       </c>
       <c r="G60" s="2" t="s">
-        <v>104</v>
+        <v>172</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="I60" s="11" t="s">
-        <v>169</v>
+        <v>249</v>
+      </c>
+      <c r="I60" s="19" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="61" customHeight="1" spans="1:9">
       <c r="A61" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>159</v>
+        <v>259</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>153</v>
+        <v>48</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>109</v>
+        <v>64</v>
       </c>
       <c r="F61" s="4" t="s">
-        <v>154</v>
+        <v>251</v>
       </c>
       <c r="G61" s="2" t="s">
-        <v>113</v>
+        <v>187</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>175</v>
+        <v>258</v>
+      </c>
+      <c r="I61" s="19" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="62" customHeight="1" spans="1:9">
       <c r="A62" s="2" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>165</v>
+        <v>269</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>117</v>
+        <v>79</v>
       </c>
       <c r="F62" s="4" t="s">
-        <v>160</v>
+        <v>260</v>
       </c>
       <c r="G62" s="2" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="I62" s="11" t="s">
-        <v>181</v>
+        <v>268</v>
+      </c>
+      <c r="I62" s="19" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="63" customHeight="1" spans="1:9">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>125</v>
+        <v>94</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>166</v>
+        <v>270</v>
       </c>
       <c r="G63" s="2" t="s">
-        <v>129</v>
+        <v>214</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="I63" s="11" t="s">
-        <v>188</v>
+        <v>278</v>
+      </c>
+      <c r="I63" s="19" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="64" customHeight="1" spans="1:9">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>177</v>
+        <v>290</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>172</v>
+        <v>280</v>
       </c>
       <c r="G64" s="2" t="s">
-        <v>137</v>
+        <v>227</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="I64" s="11" t="s">
-        <v>195</v>
+        <v>289</v>
+      </c>
+      <c r="I64" s="19" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="65" customHeight="1" spans="1:9">
       <c r="A65" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>183</v>
+        <v>301</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>178</v>
+        <v>291</v>
       </c>
       <c r="G65" s="2" t="s">
-        <v>144</v>
+        <v>238</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="I65" s="11" t="s">
-        <v>275</v>
+        <v>300</v>
+      </c>
+      <c r="I65" s="19" t="s">
+        <v>483</v>
       </c>
     </row>
     <row r="66" customHeight="1" spans="1:9">
       <c r="A66" s="2" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>190</v>
+        <v>311</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>185</v>
+        <v>302</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>151</v>
+        <v>249</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="I66" s="11" t="s">
-        <v>207</v>
+        <v>310</v>
+      </c>
+      <c r="I66" s="19" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="67" customHeight="1" spans="1:9">
       <c r="A67" s="2" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>196</v>
+        <v>320</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>191</v>
+        <v>138</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>192</v>
+        <v>312</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>158</v>
+        <v>258</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I67" s="11" t="s">
-        <v>214</v>
+        <v>9</v>
+      </c>
+      <c r="I67" s="19" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="68" customHeight="1" spans="1:9">
       <c r="A68" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>202</v>
+        <v>328</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>197</v>
+        <v>152</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F68" s="12" t="s">
-        <v>199</v>
+        <v>167</v>
+      </c>
+      <c r="F68" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="G68" s="2" t="s">
-        <v>164</v>
+        <v>268</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I68" s="11" t="s">
-        <v>221</v>
+        <v>25</v>
+      </c>
+      <c r="I68" s="19" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="69" customHeight="1" spans="1:9">
       <c r="A69" s="2" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>209</v>
+        <v>337</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="F69" s="12" t="s">
-        <v>205</v>
+        <v>181</v>
+      </c>
+      <c r="F69" s="28" t="s">
+        <v>329</v>
       </c>
       <c r="G69" s="2" t="s">
-        <v>208</v>
+        <v>336</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="I69" s="11" t="s">
-        <v>227</v>
+        <v>41</v>
+      </c>
+      <c r="I69" s="19" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="70" customHeight="1" spans="1:9">
       <c r="A70" s="2" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>216</v>
+        <v>346</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>210</v>
+        <v>180</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F70" s="12" t="s">
-        <v>212</v>
+        <v>195</v>
+      </c>
+      <c r="F70" s="28" t="s">
+        <v>338</v>
       </c>
       <c r="G70" s="2" t="s">
-        <v>215</v>
+        <v>345</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="I70" s="11" t="s">
-        <v>233</v>
+        <v>57</v>
+      </c>
+      <c r="I70" s="19" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="71" customHeight="1" spans="1:9">
       <c r="A71" s="2" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F71" s="12" t="s">
-        <v>219</v>
+        <v>208</v>
+      </c>
+      <c r="F71" s="28" t="s">
+        <v>347</v>
       </c>
       <c r="G71" s="2" t="s">
-        <v>222</v>
+        <v>355</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I71" s="11" t="s">
-        <v>239</v>
+        <v>72</v>
+      </c>
+      <c r="I71" s="19" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="72" customHeight="1" spans="1:9">
       <c r="A72" s="2" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>229</v>
+        <v>366</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>225</v>
+        <v>221</v>
+      </c>
+      <c r="F72" s="29" t="s">
+        <v>357</v>
       </c>
       <c r="G72" s="2" t="s">
-        <v>228</v>
+        <v>365</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>276</v>
+        <v>87</v>
+      </c>
+      <c r="I72" s="19" t="s">
+        <v>484</v>
       </c>
     </row>
     <row r="73" customHeight="1" spans="1:9">
       <c r="A73" s="2" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>235</v>
+        <v>376</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="F73" s="14" t="s">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="F73" s="30" t="s">
+        <v>367</v>
       </c>
       <c r="G73" s="2" t="s">
-        <v>234</v>
+        <v>375</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>250</v>
+        <v>189</v>
+      </c>
+      <c r="I73" s="19" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="74" customHeight="1" spans="1:9">
       <c r="A74" s="2" t="s">
-        <v>240</v>
+        <v>385</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>241</v>
+        <v>386</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>62</v>
+        <v>103</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>237</v>
+        <v>244</v>
+      </c>
+      <c r="F74" s="30" t="s">
+        <v>377</v>
       </c>
       <c r="G74" s="2" t="s">
-        <v>240</v>
+        <v>385</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I74" s="11" t="s">
-        <v>277</v>
+        <v>203</v>
+      </c>
+      <c r="I74" s="19" t="s">
+        <v>485</v>
       </c>
     </row>
     <row r="75" customHeight="1" spans="1:9">
       <c r="A75" s="2" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>131</v>
+        <v>216</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>246</v>
+        <v>394</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>71</v>
+        <v>118</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>242</v>
-      </c>
-      <c r="F75" s="14" t="s">
-        <v>243</v>
+        <v>19</v>
+      </c>
+      <c r="F75" s="30" t="s">
+        <v>387</v>
       </c>
       <c r="G75" s="2" t="s">
-        <v>170</v>
+        <v>278</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I75" s="11" t="s">
-        <v>278</v>
+        <v>216</v>
+      </c>
+      <c r="I75" s="19" t="s">
+        <v>486</v>
       </c>
     </row>
     <row r="76" customHeight="1" spans="1:9">
       <c r="A76" s="2" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>251</v>
+        <v>402</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>80</v>
+        <v>133</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>248</v>
+        <v>35</v>
+      </c>
+      <c r="F76" s="30" t="s">
+        <v>395</v>
       </c>
       <c r="G76" s="2" t="s">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="I76" s="11" t="s">
-        <v>279</v>
+        <v>16</v>
+      </c>
+      <c r="I76" s="19" t="s">
+        <v>487</v>
       </c>
     </row>
     <row r="77" customHeight="1" spans="1:9">
       <c r="A77" s="2" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>146</v>
+        <v>32</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>89</v>
+        <v>147</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="F77" s="14" t="s">
-        <v>253</v>
+        <v>51</v>
+      </c>
+      <c r="F77" s="30" t="s">
+        <v>403</v>
       </c>
       <c r="G77" s="2" t="s">
-        <v>182</v>
+        <v>300</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="I77" s="11" t="s">
-        <v>280</v>
+        <v>32</v>
+      </c>
+      <c r="I77" s="19" t="s">
+        <v>488</v>
       </c>
     </row>
     <row r="78" customHeight="1" spans="7:9">
       <c r="G78" s="2" t="s">
-        <v>189</v>
+        <v>310</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="I78" s="11" t="s">
-        <v>281</v>
+        <v>48</v>
+      </c>
+      <c r="I78" s="19" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="79" customHeight="1" spans="7:9">
       <c r="G79" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I79" s="11" t="s">
-        <v>282</v>
+        <v>10</v>
+      </c>
+      <c r="I79" s="19" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="80" customHeight="1" spans="7:9">
       <c r="G80" s="2" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I80" s="11" t="s">
-        <v>283</v>
+        <v>26</v>
+      </c>
+      <c r="I80" s="19" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="7:9">
       <c r="G81" s="2" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I81" s="11" t="s">
-        <v>284</v>
+        <v>42</v>
+      </c>
+      <c r="I81" s="19" t="s">
+        <v>492</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="7:9">
       <c r="G82" s="2" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I82" s="11" t="s">
-        <v>285</v>
+        <v>58</v>
+      </c>
+      <c r="I82" s="19" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="7:9">
       <c r="G83" s="2" t="s">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I83" s="11" t="s">
-        <v>286</v>
+        <v>73</v>
+      </c>
+      <c r="I83" s="19" t="s">
+        <v>494</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="7:9">
       <c r="G84" s="2" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="I84" s="11" t="s">
-        <v>287</v>
+        <v>88</v>
+      </c>
+      <c r="I84" s="19" t="s">
+        <v>495</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="7:9">
       <c r="G85" s="2" t="s">
-        <v>61</v>
+        <v>102</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="I85" s="11" t="s">
-        <v>288</v>
+        <v>103</v>
+      </c>
+      <c r="I85" s="19" t="s">
+        <v>496</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="7:9">
       <c r="G86" s="8" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="I86" s="11" t="s">
-        <v>289</v>
+        <v>118</v>
+      </c>
+      <c r="I86" s="19" t="s">
+        <v>497</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="7:9">
       <c r="G87" s="8" t="s">
-        <v>79</v>
+        <v>132</v>
       </c>
       <c r="H87" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I87" s="11" t="s">
-        <v>290</v>
+        <v>133</v>
+      </c>
+      <c r="I87" s="19" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="7:9">
       <c r="G88" s="8" t="s">
-        <v>88</v>
+        <v>146</v>
       </c>
       <c r="H88" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="I88" s="11" t="s">
-        <v>245</v>
+        <v>147</v>
+      </c>
+      <c r="I88" s="19" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="89" customHeight="1" spans="7:9">
       <c r="G89" s="8" t="s">
-        <v>97</v>
+        <v>160</v>
       </c>
       <c r="H89" s="8" t="s">
-        <v>98</v>
-      </c>
-      <c r="I89" s="11" t="s">
-        <v>291</v>
+        <v>161</v>
+      </c>
+      <c r="I89" s="19" t="s">
+        <v>499</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="7:9">
       <c r="G90" s="8" t="s">
-        <v>106</v>
+        <v>174</v>
       </c>
       <c r="H90" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="I90" s="11" t="s">
-        <v>292</v>
+        <v>175</v>
+      </c>
+      <c r="I90" s="19" t="s">
+        <v>500</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="7:9">
       <c r="G91" s="8" t="s">
-        <v>115</v>
+        <v>189</v>
       </c>
       <c r="H91" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="I91" s="11" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="108" customHeight="1" spans="5:5">
-      <c r="E108" s="15"/>
+        <v>12</v>
+      </c>
+      <c r="I91" s="19" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="109" customHeight="1" spans="5:5">
+      <c r="E109" s="31"/>
+    </row>
+    <row r="110" customHeight="1" spans="5:5">
+      <c r="E110" s="31"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="11">
     <mergeCell ref="A1:I1"/>
+    <mergeCell ref="K1:S1"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="G41:I41"/>
+    <mergeCell ref="S43:S44"/>
+    <mergeCell ref="S45:S46"/>
+    <mergeCell ref="S47:S48"/>
+    <mergeCell ref="S49:S50"/>
+    <mergeCell ref="S51:S52"/>
+    <mergeCell ref="S53:S54"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/内部编号列表/[hack]Extra BETA.xlsx
+++ b/内部编号列表/[hack]Extra BETA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="502">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1210" uniqueCount="520">
   <si>
     <r>
       <rPr>
@@ -748,6 +748,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>TBD(</t>
     </r>
     <r>
@@ -822,6 +828,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：白天</t>
     </r>
     <r>
@@ -917,6 +929,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：夜晚</t>
     </r>
     <r>
@@ -1012,6 +1030,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：泳池</t>
     </r>
     <r>
@@ -1107,6 +1131,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：浓雾</t>
     </r>
     <r>
@@ -1210,6 +1240,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：屋顶</t>
     </r>
     <r>
@@ -1379,6 +1415,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>生存模式：白天</t>
     </r>
     <r>
@@ -1654,6 +1696,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>坚果保龄球</t>
     </r>
     <r>
@@ -1911,6 +1959,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>黑暗的暴风雨夜</t>
     </r>
     <r>
@@ -2123,6 +2177,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>植物僵尸</t>
     </r>
     <r>
@@ -2370,6 +2430,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>僵王博士的复仇</t>
     </r>
     <r>
@@ -2985,6 +3051,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双人合作：白天</t>
     </r>
     <r>
@@ -3138,6 +3210,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双人合作：夜晚</t>
     </r>
     <r>
@@ -3204,6 +3282,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双人合作：泳池</t>
     </r>
     <r>
@@ -3272,6 +3356,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双人合作：浓雾</t>
     </r>
     <r>
@@ -3343,6 +3433,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>双人合作：屋顶</t>
     </r>
     <r>
@@ -3524,6 +3620,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <charset val="134"/>
+      </rPr>
       <t>TBD(</t>
     </r>
     <r>
@@ -3703,6 +3805,17 @@
     <t>双人对战：月夜</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>子弹编号</t>
+    </r>
+  </si>
+  <si>
     <t>A2</t>
   </si>
   <si>
@@ -3713,6 +3826,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>子弹名称</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>雪橇僵尸小队</t>
     </r>
   </si>
@@ -3724,6 +3848,94 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>寒冰豌豆</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>卷心菜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>西瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>孢子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>冰西瓜</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>火球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>针刺</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>篮球僵尸</t>
     </r>
   </si>
@@ -3735,6 +3947,61 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>篮球</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米粒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>玉米棒</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>黄油</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>无</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>僵王博士</t>
     </r>
   </si>
@@ -3746,6 +4013,17 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>紫色瓶子</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>火把僵尸</t>
     </r>
   </si>
@@ -3757,7 +4035,29 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
+      <t>回旋镖</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>太阳能车僵尸</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>毒豌豆</t>
     </r>
   </si>
   <si>
@@ -4687,7 +4987,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4751,6 +5051,12 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -4767,9 +5073,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="15" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -5110,8 +5413,8 @@
   <sheetPr/>
   <dimension ref="A1:S110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F33" workbookViewId="0">
-      <selection activeCell="P47" sqref="P47"/>
+    <sheetView tabSelected="1" topLeftCell="F57" workbookViewId="0">
+      <selection activeCell="P67" sqref="P67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="20" customHeight="1"/>
@@ -5153,7 +5456,7 @@
       <c r="P1" s="11"/>
       <c r="Q1" s="11"/>
       <c r="R1" s="11"/>
-      <c r="S1" s="21"/>
+      <c r="S1" s="23"/>
     </row>
     <row r="2" customHeight="1" spans="1:19">
       <c r="A2" s="2" t="s">
@@ -5593,10 +5896,10 @@
       <c r="P9" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="Q9" s="20" t="s">
+      <c r="Q9" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="8" t="s">
         <v>112</v>
       </c>
       <c r="S9" s="18" t="s">
@@ -5711,7 +6014,7 @@
       <c r="R11" s="8" t="s">
         <v>141</v>
       </c>
-      <c r="S11" s="22" t="s">
+      <c r="S11" s="24" t="s">
         <v>142</v>
       </c>
     </row>
@@ -5767,7 +6070,7 @@
       <c r="R12" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="S12" s="22" t="s">
+      <c r="S12" s="24" t="s">
         <v>156</v>
       </c>
     </row>
@@ -5823,7 +6126,7 @@
       <c r="R13" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="S13" s="23" t="s">
+      <c r="S13" s="25" t="s">
         <v>170</v>
       </c>
     </row>
@@ -5879,7 +6182,7 @@
       <c r="R14" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="S14" s="23" t="s">
+      <c r="S14" s="25" t="s">
         <v>185</v>
       </c>
     </row>
@@ -6775,7 +7078,7 @@
       <c r="R30" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="S30" s="23" t="s">
+      <c r="S30" s="25" t="s">
         <v>354</v>
       </c>
     </row>
@@ -6831,7 +7134,7 @@
       <c r="R31" s="8" t="s">
         <v>363</v>
       </c>
-      <c r="S31" s="24" t="s">
+      <c r="S31" s="26" t="s">
         <v>364</v>
       </c>
     </row>
@@ -6887,7 +7190,7 @@
       <c r="R32" s="8" t="s">
         <v>373</v>
       </c>
-      <c r="S32" s="24" t="s">
+      <c r="S32" s="26" t="s">
         <v>374</v>
       </c>
     </row>
@@ -6943,7 +7246,7 @@
       <c r="R33" s="8" t="s">
         <v>383</v>
       </c>
-      <c r="S33" s="24" t="s">
+      <c r="S33" s="26" t="s">
         <v>384</v>
       </c>
     </row>
@@ -6999,7 +7302,7 @@
       <c r="R34" s="8" t="s">
         <v>392</v>
       </c>
-      <c r="S34" s="24" t="s">
+      <c r="S34" s="26" t="s">
         <v>393</v>
       </c>
     </row>
@@ -7055,7 +7358,7 @@
       <c r="R35" s="8" t="s">
         <v>400</v>
       </c>
-      <c r="S35" s="24" t="s">
+      <c r="S35" s="26" t="s">
         <v>401</v>
       </c>
     </row>
@@ -7111,7 +7414,7 @@
       <c r="R36" s="8" t="s">
         <v>407</v>
       </c>
-      <c r="S36" s="25" t="s">
+      <c r="S36" s="27" t="s">
         <v>408</v>
       </c>
     </row>
@@ -7167,7 +7470,7 @@
       <c r="R37" s="8" t="s">
         <v>414</v>
       </c>
-      <c r="S37" s="25" t="s">
+      <c r="S37" s="27" t="s">
         <v>415</v>
       </c>
     </row>
@@ -7223,7 +7526,7 @@
       <c r="R38" s="8" t="s">
         <v>421</v>
       </c>
-      <c r="S38" s="25" t="s">
+      <c r="S38" s="27" t="s">
         <v>422</v>
       </c>
     </row>
@@ -7252,7 +7555,7 @@
       <c r="R39" s="8" t="s">
         <v>425</v>
       </c>
-      <c r="S39" s="25" t="s">
+      <c r="S39" s="27" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7292,7 +7595,7 @@
       <c r="R40" s="8" t="s">
         <v>430</v>
       </c>
-      <c r="S40" s="25" t="s">
+      <c r="S40" s="27" t="s">
         <v>431</v>
       </c>
     </row>
@@ -7328,13 +7631,13 @@
       <c r="P41" s="18" t="s">
         <v>435</v>
       </c>
-      <c r="Q41" s="26">
+      <c r="Q41" s="28">
         <v>95</v>
       </c>
-      <c r="R41" s="20" t="s">
+      <c r="R41" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="S41" s="25" t="s">
+      <c r="S41" s="27" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7384,13 +7687,13 @@
       <c r="P42" s="18" t="s">
         <v>439</v>
       </c>
-      <c r="Q42" s="26">
+      <c r="Q42" s="28">
         <v>96</v>
       </c>
-      <c r="R42" s="20" t="s">
+      <c r="R42" s="8" t="s">
         <v>440</v>
       </c>
-      <c r="S42" s="25" t="s">
+      <c r="S42" s="27" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7440,10 +7743,10 @@
       <c r="P43" s="18" t="s">
         <v>443</v>
       </c>
-      <c r="Q43" s="26">
+      <c r="Q43" s="28">
         <v>97</v>
       </c>
-      <c r="R43" s="26">
+      <c r="R43" s="28">
         <v>151</v>
       </c>
       <c r="S43" s="27" t="s">
@@ -7496,10 +7799,10 @@
       <c r="P44" s="18" t="s">
         <v>447</v>
       </c>
-      <c r="Q44" s="26">
+      <c r="Q44" s="28">
         <v>98</v>
       </c>
-      <c r="R44" s="26">
+      <c r="R44" s="28">
         <v>152</v>
       </c>
       <c r="S44" s="27"/>
@@ -7550,10 +7853,10 @@
       <c r="P45" s="18" t="s">
         <v>449</v>
       </c>
-      <c r="Q45" s="26">
+      <c r="Q45" s="28">
         <v>99</v>
       </c>
-      <c r="R45" s="26">
+      <c r="R45" s="28">
         <v>153</v>
       </c>
       <c r="S45" s="27" t="s">
@@ -7606,10 +7909,10 @@
       <c r="P46" s="18" t="s">
         <v>452</v>
       </c>
-      <c r="Q46" s="26" t="s">
+      <c r="Q46" s="28" t="s">
         <v>453</v>
       </c>
-      <c r="R46" s="26">
+      <c r="R46" s="28">
         <v>154</v>
       </c>
       <c r="S46" s="27"/>
@@ -7651,19 +7954,19 @@
       <c r="M47" s="17" t="s">
         <v>454</v>
       </c>
-      <c r="N47" s="20" t="s">
+      <c r="N47" s="8" t="s">
         <v>455</v>
       </c>
-      <c r="O47" s="20" t="s">
+      <c r="O47" s="8" t="s">
         <v>456</v>
       </c>
       <c r="P47" s="18" t="s">
         <v>457</v>
       </c>
-      <c r="Q47" s="26" t="s">
+      <c r="Q47" s="28" t="s">
         <v>458</v>
       </c>
-      <c r="R47" s="26">
+      <c r="R47" s="28">
         <v>155</v>
       </c>
       <c r="S47" s="27" t="s">
@@ -7716,10 +8019,10 @@
       <c r="P48" s="18" t="s">
         <v>461</v>
       </c>
-      <c r="Q48" s="26" t="s">
+      <c r="Q48" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="R48" s="26">
+      <c r="R48" s="28">
         <v>156</v>
       </c>
       <c r="S48" s="27"/>
@@ -7770,10 +8073,10 @@
       <c r="P49" s="18" t="s">
         <v>464</v>
       </c>
-      <c r="Q49" s="26" t="s">
+      <c r="Q49" s="28" t="s">
         <v>465</v>
       </c>
-      <c r="R49" s="26">
+      <c r="R49" s="28">
         <v>157</v>
       </c>
       <c r="S49" s="27" t="s">
@@ -7826,10 +8129,10 @@
       <c r="P50" s="18" t="s">
         <v>468</v>
       </c>
-      <c r="Q50" s="26" t="s">
+      <c r="Q50" s="28" t="s">
         <v>469</v>
       </c>
-      <c r="R50" s="26">
+      <c r="R50" s="28">
         <v>158</v>
       </c>
       <c r="S50" s="27"/>
@@ -7880,10 +8183,10 @@
       <c r="P51" s="18" t="s">
         <v>471</v>
       </c>
-      <c r="Q51" s="26" t="s">
+      <c r="Q51" s="28" t="s">
         <v>472</v>
       </c>
-      <c r="R51" s="26">
+      <c r="R51" s="28">
         <v>159</v>
       </c>
       <c r="S51" s="27" t="s">
@@ -7936,10 +8239,10 @@
       <c r="P52" s="18" t="s">
         <v>476</v>
       </c>
-      <c r="Q52" s="26" t="s">
+      <c r="Q52" s="28" t="s">
         <v>477</v>
       </c>
-      <c r="R52" s="26">
+      <c r="R52" s="28">
         <v>160</v>
       </c>
       <c r="S52" s="27"/>
@@ -7972,10 +8275,10 @@
       <c r="I53" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="Q53" s="26" t="s">
+      <c r="Q53" s="28" t="s">
         <v>479</v>
       </c>
-      <c r="R53" s="26">
+      <c r="R53" s="28">
         <v>161</v>
       </c>
       <c r="S53" s="27" t="s">
@@ -8010,15 +8313,20 @@
       <c r="I54" s="19" t="s">
         <v>219</v>
       </c>
-      <c r="Q54" s="26" t="s">
+      <c r="K54" s="20" t="s">
         <v>481</v>
       </c>
-      <c r="R54" s="26">
+      <c r="L54" s="20"/>
+      <c r="M54" s="21"/>
+      <c r="Q54" s="28" t="s">
+        <v>482</v>
+      </c>
+      <c r="R54" s="28">
         <v>162</v>
       </c>
       <c r="S54" s="27"/>
     </row>
-    <row r="55" customHeight="1" spans="1:9">
+    <row r="55" customHeight="1" spans="1:13">
       <c r="A55" s="2" t="s">
         <v>186</v>
       </c>
@@ -8046,8 +8354,17 @@
       <c r="I55" s="19" t="s">
         <v>242</v>
       </c>
+      <c r="K55" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L55" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M55" s="13" t="s">
+        <v>483</v>
+      </c>
     </row>
-    <row r="56" customHeight="1" spans="1:9">
+    <row r="56" customHeight="1" spans="1:13">
       <c r="A56" s="2" t="s">
         <v>200</v>
       </c>
@@ -8073,10 +8390,19 @@
         <v>201</v>
       </c>
       <c r="I56" s="19" t="s">
-        <v>482</v>
+        <v>484</v>
+      </c>
+      <c r="K56" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L56" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="M56" s="22" t="s">
+        <v>485</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:9">
+    <row r="57" customHeight="1" spans="1:13">
       <c r="A57" s="2" t="s">
         <v>213</v>
       </c>
@@ -8104,8 +8430,17 @@
       <c r="I57" s="19" t="s">
         <v>231</v>
       </c>
+      <c r="K57" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M57" s="22" t="s">
+        <v>486</v>
+      </c>
     </row>
-    <row r="58" customHeight="1" spans="1:9">
+    <row r="58" customHeight="1" spans="1:13">
       <c r="A58" s="2" t="s">
         <v>226</v>
       </c>
@@ -8133,8 +8468,17 @@
       <c r="I58" s="19" t="s">
         <v>253</v>
       </c>
+      <c r="K58" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L58" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="M58" s="22" t="s">
+        <v>487</v>
+      </c>
     </row>
-    <row r="59" customHeight="1" spans="1:9">
+    <row r="59" customHeight="1" spans="1:13">
       <c r="A59" s="2" t="s">
         <v>158</v>
       </c>
@@ -8162,8 +8506,17 @@
       <c r="I59" s="19" t="s">
         <v>263</v>
       </c>
+      <c r="K59" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="L59" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="M59" s="22" t="s">
+        <v>488</v>
+      </c>
     </row>
-    <row r="60" customHeight="1" spans="1:9">
+    <row r="60" customHeight="1" spans="1:13">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -8191,8 +8544,17 @@
       <c r="I60" s="19" t="s">
         <v>273</v>
       </c>
+      <c r="K60" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="L60" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="M60" s="22" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="61" customHeight="1" spans="1:9">
+    <row r="61" customHeight="1" spans="1:13">
       <c r="A61" s="2" t="s">
         <v>187</v>
       </c>
@@ -8220,8 +8582,17 @@
       <c r="I61" s="19" t="s">
         <v>283</v>
       </c>
+      <c r="K61" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="L61" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="M61" s="22" t="s">
+        <v>490</v>
+      </c>
     </row>
-    <row r="62" customHeight="1" spans="1:9">
+    <row r="62" customHeight="1" spans="1:13">
       <c r="A62" s="2" t="s">
         <v>201</v>
       </c>
@@ -8249,8 +8620,17 @@
       <c r="I62" s="19" t="s">
         <v>294</v>
       </c>
+      <c r="K62" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="L62" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="M62" s="22" t="s">
+        <v>491</v>
+      </c>
     </row>
-    <row r="63" customHeight="1" spans="1:9">
+    <row r="63" customHeight="1" spans="1:13">
       <c r="A63" s="2" t="s">
         <v>214</v>
       </c>
@@ -8278,8 +8658,17 @@
       <c r="I63" s="19" t="s">
         <v>305</v>
       </c>
+      <c r="K63" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="L63" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M63" s="22" t="s">
+        <v>366</v>
+      </c>
     </row>
-    <row r="64" customHeight="1" spans="1:9">
+    <row r="64" customHeight="1" spans="1:13">
       <c r="A64" s="2" t="s">
         <v>227</v>
       </c>
@@ -8307,8 +8696,17 @@
       <c r="I64" s="19" t="s">
         <v>315</v>
       </c>
+      <c r="K64" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="L64" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="M64" s="22" t="s">
+        <v>492</v>
+      </c>
     </row>
-    <row r="65" customHeight="1" spans="1:9">
+    <row r="65" customHeight="1" spans="1:13">
       <c r="A65" s="2" t="s">
         <v>238</v>
       </c>
@@ -8334,10 +8732,19 @@
         <v>300</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>483</v>
+        <v>493</v>
+      </c>
+      <c r="K65" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="L65" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="M65" s="22" t="s">
+        <v>494</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:9">
+    <row r="66" customHeight="1" spans="1:13">
       <c r="A66" s="2" t="s">
         <v>249</v>
       </c>
@@ -8365,8 +8772,17 @@
       <c r="I66" s="19" t="s">
         <v>331</v>
       </c>
+      <c r="K66" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="L66" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="M66" s="22" t="s">
+        <v>495</v>
+      </c>
     </row>
-    <row r="67" customHeight="1" spans="1:9">
+    <row r="67" customHeight="1" spans="1:13">
       <c r="A67" s="2" t="s">
         <v>258</v>
       </c>
@@ -8394,8 +8810,17 @@
       <c r="I67" s="19" t="s">
         <v>340</v>
       </c>
+      <c r="K67" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="L67" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="M67" s="22" t="s">
+        <v>496</v>
+      </c>
     </row>
-    <row r="68" customHeight="1" spans="1:9">
+    <row r="68" customHeight="1" spans="1:13">
       <c r="A68" s="2" t="s">
         <v>268</v>
       </c>
@@ -8411,7 +8836,7 @@
       <c r="E68" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="28" t="s">
+      <c r="F68" s="29" t="s">
         <v>321</v>
       </c>
       <c r="G68" s="2" t="s">
@@ -8423,8 +8848,17 @@
       <c r="I68" s="19" t="s">
         <v>349</v>
       </c>
+      <c r="K68" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="L68" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="M68" s="22" t="s">
+        <v>497</v>
+      </c>
     </row>
-    <row r="69" customHeight="1" spans="1:9">
+    <row r="69" customHeight="1" spans="1:13">
       <c r="A69" s="2" t="s">
         <v>336</v>
       </c>
@@ -8440,7 +8874,7 @@
       <c r="E69" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="F69" s="28" t="s">
+      <c r="F69" s="29" t="s">
         <v>329</v>
       </c>
       <c r="G69" s="2" t="s">
@@ -8452,8 +8886,17 @@
       <c r="I69" s="19" t="s">
         <v>359</v>
       </c>
+      <c r="K69" s="8" t="s">
+        <v>200</v>
+      </c>
+      <c r="L69" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="M69" s="22" t="s">
+        <v>498</v>
+      </c>
     </row>
-    <row r="70" customHeight="1" spans="1:9">
+    <row r="70" customHeight="1" spans="1:13">
       <c r="A70" s="2" t="s">
         <v>345</v>
       </c>
@@ -8469,7 +8912,7 @@
       <c r="E70" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F70" s="28" t="s">
+      <c r="F70" s="29" t="s">
         <v>338</v>
       </c>
       <c r="G70" s="2" t="s">
@@ -8481,8 +8924,17 @@
       <c r="I70" s="19" t="s">
         <v>369</v>
       </c>
+      <c r="K70" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="L70" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="M70" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="71" customHeight="1" spans="1:9">
+    <row r="71" customHeight="1" spans="1:13">
       <c r="A71" s="2" t="s">
         <v>355</v>
       </c>
@@ -8498,7 +8950,7 @@
       <c r="E71" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F71" s="28" t="s">
+      <c r="F71" s="29" t="s">
         <v>347</v>
       </c>
       <c r="G71" s="2" t="s">
@@ -8510,8 +8962,17 @@
       <c r="I71" s="19" t="s">
         <v>379</v>
       </c>
+      <c r="K71" s="8" t="s">
+        <v>226</v>
+      </c>
+      <c r="L71" s="8" t="s">
+        <v>227</v>
+      </c>
+      <c r="M71" s="20" t="s">
+        <v>489</v>
+      </c>
     </row>
-    <row r="72" customHeight="1" spans="1:9">
+    <row r="72" customHeight="1" spans="1:13">
       <c r="A72" s="2" t="s">
         <v>365</v>
       </c>
@@ -8527,7 +8988,7 @@
       <c r="E72" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="F72" s="29" t="s">
+      <c r="F72" s="30" t="s">
         <v>357</v>
       </c>
       <c r="G72" s="2" t="s">
@@ -8537,10 +8998,19 @@
         <v>87</v>
       </c>
       <c r="I72" s="19" t="s">
-        <v>484</v>
+        <v>499</v>
+      </c>
+      <c r="K72" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="L72" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="M72" s="20" t="s">
+        <v>498</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:9">
+    <row r="73" customHeight="1" spans="1:13">
       <c r="A73" s="2" t="s">
         <v>375</v>
       </c>
@@ -8556,7 +9026,7 @@
       <c r="E73" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="F73" s="30" t="s">
+      <c r="F73" s="31" t="s">
         <v>367</v>
       </c>
       <c r="G73" s="2" t="s">
@@ -8568,8 +9038,17 @@
       <c r="I73" s="19" t="s">
         <v>396</v>
       </c>
+      <c r="K73" s="8" t="s">
+        <v>172</v>
+      </c>
+      <c r="L73" s="8" t="s">
+        <v>249</v>
+      </c>
+      <c r="M73" s="20" t="s">
+        <v>500</v>
+      </c>
     </row>
-    <row r="74" customHeight="1" spans="1:9">
+    <row r="74" customHeight="1" spans="1:13">
       <c r="A74" s="2" t="s">
         <v>385</v>
       </c>
@@ -8585,7 +9064,7 @@
       <c r="E74" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="F74" s="30" t="s">
+      <c r="F74" s="31" t="s">
         <v>377</v>
       </c>
       <c r="G74" s="2" t="s">
@@ -8595,10 +9074,19 @@
         <v>203</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>485</v>
+        <v>501</v>
+      </c>
+      <c r="K74" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="L74" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="M74" s="20" t="s">
+        <v>502</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:9">
+    <row r="75" customHeight="1" spans="1:13">
       <c r="A75" s="2" t="s">
         <v>278</v>
       </c>
@@ -8614,7 +9102,7 @@
       <c r="E75" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F75" s="30" t="s">
+      <c r="F75" s="31" t="s">
         <v>387</v>
       </c>
       <c r="G75" s="2" t="s">
@@ -8624,10 +9112,19 @@
         <v>216</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>486</v>
+        <v>503</v>
+      </c>
+      <c r="K75" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="L75" s="8" t="s">
+        <v>268</v>
+      </c>
+      <c r="M75" s="20" t="s">
+        <v>504</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:9">
+    <row r="76" customHeight="1" spans="1:13">
       <c r="A76" s="2" t="s">
         <v>289</v>
       </c>
@@ -8643,7 +9140,7 @@
       <c r="E76" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F76" s="30" t="s">
+      <c r="F76" s="31" t="s">
         <v>395</v>
       </c>
       <c r="G76" s="2" t="s">
@@ -8653,10 +9150,13 @@
         <v>16</v>
       </c>
       <c r="I76" s="19" t="s">
-        <v>487</v>
-      </c>
+        <v>505</v>
+      </c>
+      <c r="K76"/>
+      <c r="L76"/>
+      <c r="M76"/>
     </row>
-    <row r="77" customHeight="1" spans="1:9">
+    <row r="77" customHeight="1" spans="1:13">
       <c r="A77" s="2" t="s">
         <v>300</v>
       </c>
@@ -8672,7 +9172,7 @@
       <c r="E77" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F77" s="30" t="s">
+      <c r="F77" s="31" t="s">
         <v>403</v>
       </c>
       <c r="G77" s="2" t="s">
@@ -8682,10 +9182,13 @@
         <v>32</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>488</v>
-      </c>
+        <v>506</v>
+      </c>
+      <c r="K77"/>
+      <c r="L77"/>
+      <c r="M77"/>
     </row>
-    <row r="78" customHeight="1" spans="7:9">
+    <row r="78" customHeight="1" spans="7:13">
       <c r="G78" s="2" t="s">
         <v>310</v>
       </c>
@@ -8693,10 +9196,13 @@
         <v>48</v>
       </c>
       <c r="I78" s="19" t="s">
-        <v>489</v>
-      </c>
+        <v>507</v>
+      </c>
+      <c r="K78"/>
+      <c r="L78"/>
+      <c r="M78"/>
     </row>
-    <row r="79" customHeight="1" spans="7:9">
+    <row r="79" customHeight="1" spans="7:13">
       <c r="G79" s="2" t="s">
         <v>9</v>
       </c>
@@ -8704,8 +9210,11 @@
         <v>10</v>
       </c>
       <c r="I79" s="19" t="s">
-        <v>490</v>
-      </c>
+        <v>508</v>
+      </c>
+      <c r="K79"/>
+      <c r="L79"/>
+      <c r="M79"/>
     </row>
     <row r="80" customHeight="1" spans="7:9">
       <c r="G80" s="2" t="s">
@@ -8715,7 +9224,7 @@
         <v>26</v>
       </c>
       <c r="I80" s="19" t="s">
-        <v>491</v>
+        <v>509</v>
       </c>
     </row>
     <row r="81" customHeight="1" spans="7:9">
@@ -8726,7 +9235,7 @@
         <v>42</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>492</v>
+        <v>510</v>
       </c>
     </row>
     <row r="82" customHeight="1" spans="7:9">
@@ -8737,7 +9246,7 @@
         <v>58</v>
       </c>
       <c r="I82" s="19" t="s">
-        <v>493</v>
+        <v>511</v>
       </c>
     </row>
     <row r="83" customHeight="1" spans="7:9">
@@ -8748,7 +9257,7 @@
         <v>73</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>494</v>
+        <v>512</v>
       </c>
     </row>
     <row r="84" customHeight="1" spans="7:9">
@@ -8759,7 +9268,7 @@
         <v>88</v>
       </c>
       <c r="I84" s="19" t="s">
-        <v>495</v>
+        <v>513</v>
       </c>
     </row>
     <row r="85" customHeight="1" spans="7:9">
@@ -8770,7 +9279,7 @@
         <v>103</v>
       </c>
       <c r="I85" s="19" t="s">
-        <v>496</v>
+        <v>514</v>
       </c>
     </row>
     <row r="86" customHeight="1" spans="7:9">
@@ -8781,7 +9290,7 @@
         <v>118</v>
       </c>
       <c r="I86" s="19" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="87" customHeight="1" spans="7:9">
@@ -8792,7 +9301,7 @@
         <v>133</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>498</v>
+        <v>516</v>
       </c>
     </row>
     <row r="88" customHeight="1" spans="7:9">
@@ -8814,7 +9323,7 @@
         <v>161</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>499</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90" customHeight="1" spans="7:9">
@@ -8825,7 +9334,7 @@
         <v>175</v>
       </c>
       <c r="I90" s="19" t="s">
-        <v>500</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" customHeight="1" spans="7:9">
@@ -8836,22 +9345,23 @@
         <v>12</v>
       </c>
       <c r="I91" s="19" t="s">
-        <v>501</v>
+        <v>519</v>
       </c>
     </row>
     <row r="109" customHeight="1" spans="5:5">
-      <c r="E109" s="31"/>
+      <c r="E109" s="32"/>
     </row>
     <row r="110" customHeight="1" spans="5:5">
-      <c r="E110" s="31"/>
+      <c r="E110" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="K1:S1"/>
     <mergeCell ref="A40:I40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="G41:I41"/>
+    <mergeCell ref="K54:M54"/>
     <mergeCell ref="S43:S44"/>
     <mergeCell ref="S45:S46"/>
     <mergeCell ref="S47:S48"/>
